--- a/2 курс 2 семестр/ПиТПМ/Тест-план Pinterest.xlsx
+++ b/2 курс 2 семестр/ПиТПМ/Тест-план Pinterest.xlsx
@@ -182,9 +182,6 @@
     <t>Нажатие на активную область "Войти через Facebook" - Ввод логина и пароля и нажатие на область авторизации(при отсутствии приложения Facebook), Нажать активную область "Продолжить как …"(при наличии приложения Facebook или после ввода логина и пароля)</t>
   </si>
   <si>
-    <t>Ввод электронной корпоративной почты, нажатие на активную область "Продолжить" - Ввод пароля - Ввод имени - Выбор пола</t>
-  </si>
-  <si>
     <t>Отсутствие корпоративной почты, отсутствие интернета, запрет на регистрацию в посторонних сервисах главой вашей корпоративной почты</t>
   </si>
   <si>
@@ -245,46 +242,13 @@
     <t>Сортировка пинов в профиле</t>
   </si>
   <si>
-    <t>Выбрать область "Сохраненное" - Нажать на активную область слева от области с тремя точками в правом верхнем углу - полное покрытие</t>
-  </si>
-  <si>
-    <t>Выбрать область "Сохраненное" - Нажать на активную область в виде трех точек - Нажать на элемент в списке под названием "Добавить аккаунт" - полное покрытие</t>
-  </si>
-  <si>
-    <t>Выбрать область "Сохраненное" - Нажать на активную область в виде трех точек - Нажать на элемент в списке под названием "Уведомления" - Выбрать область "По электронной почте" - Выбрать все уведомления - Выполнить соответствующие критерии для получения уведомления на почту - Проверить их получение в ящике электронной почты</t>
-  </si>
-  <si>
-    <t>Нажать на любое изображение в ленте - Нажать на активную область "Сохранить" - Нажать на кнопку возврата назад - Выбрать область "Сохраненное"</t>
-  </si>
-  <si>
-    <t>Выбрать область "Поиск" - Нажать на кнопку с изображением фотоаппарата - Нажать на круг для создания изображения</t>
-  </si>
-  <si>
-    <t>Выбрать область "Поиск" - Нажать на панель "Поиск идей" - Вводим произвольный текст</t>
-  </si>
-  <si>
     <t>Нажать на любое изображение в ленте - Нажать на три точки - Нажать на область под названием "Скачать изображение"</t>
   </si>
   <si>
     <t>Нажать на любое изображение в ленте - Нажать на три точки - Нажать на область под названием "Скрыть изображение"</t>
   </si>
   <si>
-    <t>Выбрать область "Сохраненное" - Нажать на активную область в виде трех точек - Нажать на область "Безопасность и входы в систему" - Нажать на область в списке под названием "Двухфакторная аутентификация" - Ввод электронной почты - Ввод пароля - Выбор кода страны - Ввод кода проверки</t>
-  </si>
-  <si>
-    <t>Выбрать область "Сохраненное" - Нажать на иконку профиля - Выбрать нужное изображение - Нажать "Сохранить"</t>
-  </si>
-  <si>
-    <t>Выбрать область "Сохраненное" - Нажать на активную область в виде трех точек - Нажать на область "Подтвержденные аккаунты" - Нажать на ползунок привязки к сети Instagram - Ввести логин - Ввести пароль - Разрешить доступ</t>
-  </si>
-  <si>
     <t>Приподнять шторку изображений - Отпустить ее, когда появится кружочек</t>
-  </si>
-  <si>
-    <t>Выбрать область "Создание" - Нажать на кнопку "Создать пин" - Выбрать нужное изображение - Нажать "Далее" - Нажать "Далее" - Выбрать доску, на которой сохранится пин (Создать доску, если ее нет, введя ее название и нажав кнопку "Создать")</t>
-  </si>
-  <si>
-    <t>Выбрать область "Сохраненное" - Нажать на кнопку "Отсортировать" - Выбрать пины - Нажать "Далее" - Выбрать доску</t>
   </si>
   <si>
     <t>Отсутствие интернета</t>
@@ -318,6 +282,42 @@
   </si>
   <si>
     <t>Отсутствие интернета, отсутствие отображения пина в личном кабинете</t>
+  </si>
+  <si>
+    <t>Нажать на область "Сохраненное" - Нажать на активную область слева от области с тремя точками в правом верхнем углу - полное покрытие</t>
+  </si>
+  <si>
+    <t>Нажать на область "Сохраненное" - Нажать на активную область в виде трех точек - Нажать на элемент в списке под названием "Добавить аккаунт" - полное покрытие</t>
+  </si>
+  <si>
+    <t>Нажать на область "Сохраненное" - Нажать на активную область в виде трех точек - Нажать на элемент в списке под названием "Уведомления" - Нажать на область "По электронной почте" - Нажать на все уведомления - Выполнить соответствующие критерии для получения уведомления на почту - Проверить их получение в ящике электронной почты</t>
+  </si>
+  <si>
+    <t>Нажать на любое изображение в ленте - Нажать на активную область "Сохранить" - Нажать на кнопку возврата назад - Нажать на область "Сохраненное"</t>
+  </si>
+  <si>
+    <t>Нажать на область "Поиск" - Нажать на кнопку с изображением фотоаппарата - Нажать на круг для создания изображения</t>
+  </si>
+  <si>
+    <t>Нажать на область "Сохраненное" - Нажать на иконку профиля - Нажать на нужное изображение - Нажать "Сохранить"</t>
+  </si>
+  <si>
+    <t>Нажать на область "Сохраненное" - Нажать на активную область в виде трех точек - Нажать на область "Подтвержденные аккаунты" - Нажать на ползунок привязки к сети Instagram - Ввести логин - Ввести пароль - Разрешить доступ</t>
+  </si>
+  <si>
+    <t>Нажать на область "Создание" - Нажать на кнопку "Создать пин" - Нажать на нужное изображение - Нажать "Далее" - Нажать "Далее" - Нажать на доску, на которой сохранится пин (Создать доску, если ее нет, введя ее название и нажав кнопку "Создать")</t>
+  </si>
+  <si>
+    <t>Нажать на область "Сохраненное" - Нажать на кнопку "Отсортировать" - Нажать на пины - Нажать "Далее" - Нажать на доску</t>
+  </si>
+  <si>
+    <t>Ввод электронной корпоративной почты, нажатие на активную область "Продолжить" - Ввод пароля - Ввод имени - Нажать на нужный пол</t>
+  </si>
+  <si>
+    <t>Нажать на область "Сохраненное" - Нажать на активную область в виде трех точек - Нажать на область "Безопасность и входы в систему" - Нажать на область в списке под названием "Двухфакторная аутентификация" - Ввод электронной почты - Ввод пароля - Нажать на нужный код страны - Ввод кода проверки</t>
+  </si>
+  <si>
+    <t>Нажать на область "Поиск" - Нажать на панель "Поиск идей" - Вводим произвольный текст - Нажимаем на область в виде лупы</t>
   </si>
 </sst>
 </file>
@@ -679,8 +679,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="A27" sqref="A27"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.3984375" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -923,7 +923,7 @@
       </c>
       <c r="C8" s="1"/>
       <c r="D8" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
@@ -1013,19 +1013,19 @@
         <v>2</v>
       </c>
       <c r="F10" s="6" t="s">
-        <v>59</v>
+        <v>47</v>
       </c>
       <c r="G10" s="6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H10" s="8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I10" s="8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J10" s="8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="K10" s="2"/>
       <c r="L10" s="9">
@@ -1058,25 +1058,25 @@
         <v>3</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>22</v>
+        <v>65</v>
       </c>
       <c r="E11" s="6">
         <v>1</v>
       </c>
       <c r="F11" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G11" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H11" s="8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I11" s="8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J11" s="8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="K11" s="2"/>
       <c r="L11" s="9">
@@ -1103,31 +1103,31 @@
         <v>3</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C12" s="6">
         <v>4</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>43</v>
+        <v>56</v>
       </c>
       <c r="E12" s="6">
         <v>1</v>
       </c>
       <c r="F12" s="6" t="s">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="G12" s="6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H12" s="8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I12" s="8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J12" s="8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="K12" s="2"/>
       <c r="L12" s="9">
@@ -1154,31 +1154,31 @@
         <v>4</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C13" s="6">
         <v>2</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>44</v>
+        <v>57</v>
       </c>
       <c r="E13" s="6">
         <v>2</v>
       </c>
       <c r="F13" s="6" t="s">
-        <v>66</v>
+        <v>54</v>
       </c>
       <c r="G13" s="6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H13" s="8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I13" s="8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J13" s="8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="K13" s="2"/>
       <c r="L13" s="9">
@@ -1205,31 +1205,31 @@
         <v>5</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C14" s="6">
         <v>4</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>45</v>
+        <v>58</v>
       </c>
       <c r="E14" s="6">
         <v>3</v>
       </c>
       <c r="F14" s="6" t="s">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="G14" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H14" s="8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I14" s="8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J14" s="8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="K14" s="2"/>
       <c r="L14" s="9">
@@ -1256,31 +1256,31 @@
         <v>6</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C15" s="6">
         <v>1</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>48</v>
+        <v>67</v>
       </c>
       <c r="E15" s="6">
         <v>1</v>
       </c>
       <c r="F15" s="6" t="s">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="G15" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H15" s="8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I15" s="8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J15" s="8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="K15" s="2"/>
       <c r="L15" s="9">
@@ -1307,31 +1307,31 @@
         <v>7</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C16" s="6">
         <v>1</v>
       </c>
       <c r="D16" s="8" t="s">
-        <v>46</v>
+        <v>59</v>
       </c>
       <c r="E16" s="6">
         <v>1</v>
       </c>
       <c r="F16" s="6" t="s">
-        <v>61</v>
+        <v>49</v>
       </c>
       <c r="G16" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H16" s="8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I16" s="8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J16" s="8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="K16" s="2"/>
       <c r="L16" s="9">
@@ -1358,31 +1358,31 @@
         <v>8</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C17" s="6">
         <v>2</v>
       </c>
       <c r="D17" s="8" t="s">
-        <v>47</v>
+        <v>60</v>
       </c>
       <c r="E17" s="6">
         <v>1</v>
       </c>
       <c r="F17" s="6" t="s">
-        <v>62</v>
+        <v>50</v>
       </c>
       <c r="G17" s="6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H17" s="8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I17" s="8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J17" s="8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="K17" s="2"/>
       <c r="L17" s="9">
@@ -1409,31 +1409,31 @@
         <v>9</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C18" s="6">
         <v>2</v>
       </c>
       <c r="D18" s="8" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="E18" s="6">
         <v>1</v>
       </c>
       <c r="F18" s="6" t="s">
-        <v>63</v>
+        <v>51</v>
       </c>
       <c r="G18" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H18" s="8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I18" s="8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J18" s="8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="K18" s="2"/>
       <c r="L18" s="9">
@@ -1460,31 +1460,31 @@
         <v>10</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C19" s="6">
         <v>2</v>
       </c>
       <c r="D19" s="8" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="E19" s="6">
         <v>1</v>
       </c>
       <c r="F19" s="6" t="s">
-        <v>64</v>
+        <v>52</v>
       </c>
       <c r="G19" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H19" s="8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I19" s="8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J19" s="8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="K19" s="2"/>
       <c r="L19" s="9">
@@ -1511,31 +1511,31 @@
         <v>11</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C20" s="6">
         <v>2</v>
       </c>
       <c r="D20" s="8" t="s">
-        <v>51</v>
+        <v>66</v>
       </c>
       <c r="E20" s="6">
         <v>2</v>
       </c>
       <c r="F20" s="6" t="s">
-        <v>65</v>
+        <v>53</v>
       </c>
       <c r="G20" s="6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H20" s="8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I20" s="8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J20" s="8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="K20" s="2"/>
       <c r="L20" s="9">
@@ -1562,31 +1562,31 @@
         <v>12</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C21" s="6">
         <v>2</v>
       </c>
       <c r="D21" s="8" t="s">
-        <v>52</v>
+        <v>61</v>
       </c>
       <c r="E21" s="6">
         <v>1</v>
       </c>
       <c r="F21" s="6" t="s">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="G21" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H21" s="8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I21" s="8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J21" s="8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="K21" s="2"/>
       <c r="L21" s="9">
@@ -1613,31 +1613,31 @@
         <v>13</v>
       </c>
       <c r="B22" s="8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C22" s="6">
         <v>4</v>
       </c>
       <c r="D22" s="8" t="s">
-        <v>53</v>
+        <v>62</v>
       </c>
       <c r="E22" s="6">
         <v>2</v>
       </c>
       <c r="F22" s="6" t="s">
-        <v>58</v>
+        <v>46</v>
       </c>
       <c r="G22" s="6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H22" s="8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I22" s="8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J22" s="8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="K22" s="2"/>
       <c r="L22" s="9">
@@ -1664,31 +1664,31 @@
         <v>14</v>
       </c>
       <c r="B23" s="8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C23" s="6">
         <v>1</v>
       </c>
       <c r="D23" s="8" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="E23" s="6">
         <v>1</v>
       </c>
       <c r="F23" s="6" t="s">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="G23" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H23" s="8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I23" s="8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J23" s="8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="K23" s="2"/>
       <c r="L23" s="9">
@@ -1715,31 +1715,31 @@
         <v>15</v>
       </c>
       <c r="B24" s="8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C24" s="6">
         <v>1</v>
       </c>
       <c r="D24" s="8" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="E24" s="6">
         <v>1</v>
       </c>
       <c r="F24" s="6" t="s">
-        <v>67</v>
+        <v>55</v>
       </c>
       <c r="G24" s="6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H24" s="8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I24" s="8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J24" s="8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="K24" s="2"/>
       <c r="L24" s="9">
@@ -1766,31 +1766,31 @@
         <v>16</v>
       </c>
       <c r="B25" s="8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C25" s="6">
         <v>2</v>
       </c>
       <c r="D25" s="8" t="s">
-        <v>56</v>
+        <v>64</v>
       </c>
       <c r="E25" s="6">
         <v>1</v>
       </c>
       <c r="F25" s="6" t="s">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="G25" s="6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H25" s="8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I25" s="8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J25" s="8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="K25" s="2"/>
       <c r="L25" s="9">
@@ -1814,7 +1814,7 @@
     </row>
     <row r="26" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
